--- a/stat/mlp test.xlsx
+++ b/stat/mlp test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuthapholdechpramualphol/Desktop/ComSci-Project/stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CB1715-1814-EE4D-994D-281E95876618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCABDAD-5FBF-E948-8234-C6DFEA27BE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="20200" xr2:uid="{179DA9C1-AA5A-494F-85AA-A6C3DA424EB4}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,8 +101,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>0.92521857923497197</v>
+        <v>0.95341530054644796</v>
       </c>
       <c r="C3" s="2">
-        <v>0.92521857923497197</v>
+        <v>0.95341530054644796</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>0.92352459016393396</v>
+        <v>0.95174863387978104</v>
       </c>
       <c r="C4" s="2">
-        <v>0.92352459016393396</v>
+        <v>0.95174863387978104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -474,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.92024590163934405</v>
+        <v>0.95174863387978104</v>
       </c>
       <c r="C5" s="2">
-        <v>0.92024590163934405</v>
+        <v>0.95174863387978104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -490,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>0.92185792349726703</v>
+        <v>0.95174863387978104</v>
       </c>
       <c r="C8" s="2">
-        <v>0.92185792349726703</v>
+        <v>0.95174863387978104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -501,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.91521857923497196</v>
+        <v>0.95174863387978104</v>
       </c>
       <c r="C9" s="2">
-        <v>0.91521857923497196</v>
+        <v>0.95174863387978104</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -512,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>0.90699453551912501</v>
+        <v>0.95174863387978104</v>
       </c>
       <c r="C10" s="1">
-        <v>0.90699453551912501</v>
+        <v>0.95174863387978104</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -528,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>0.92188524590163901</v>
+        <v>0.95174863387978104</v>
       </c>
       <c r="C13" s="1">
-        <v>0.92188524590163901</v>
+        <v>0.95174863387978104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -539,10 +539,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>0.91852459016393395</v>
+        <v>0.955081967213114</v>
       </c>
       <c r="C14" s="1">
-        <v>0.91852459016393395</v>
+        <v>0.955081967213114</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -550,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>0.91516393442622901</v>
+        <v>0.950081967213114</v>
       </c>
       <c r="C15" s="1">
-        <v>0.91516393442622901</v>
+        <v>0.950081967213114</v>
       </c>
     </row>
   </sheetData>

--- a/stat/mlp test.xlsx
+++ b/stat/mlp test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuthapholdechpramualphol/Desktop/ComSci-Project/stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCABDAD-5FBF-E948-8234-C6DFEA27BE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD5D660-9F47-E649-8A1F-8BD34EE76AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="20200" xr2:uid="{179DA9C1-AA5A-494F-85AA-A6C3DA424EB4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="16620" xr2:uid="{179DA9C1-AA5A-494F-85AA-A6C3DA424EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>format</t>
   </si>
@@ -54,13 +54,19 @@
     <t>d+d/2</t>
   </si>
   <si>
-    <t>round 2</t>
-  </si>
-  <si>
-    <t>round 1</t>
-  </si>
-  <si>
-    <t>round 3</t>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>ชุดข้อมูลจำลอง</t>
+  </si>
+  <si>
+    <t>case\_routing\_intent</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>atis_intent</t>
   </si>
 </sst>
 </file>
@@ -419,141 +425,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E98B37-6001-364A-A22D-470983C38DDE}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.95341530054644796</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.95341530054644796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.95341530054644796</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>0.95341530054644796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.95174863387978104</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.95174863387978104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.95174863387978104</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>0.95174863387978104</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D4" s="2">
+        <v>0.95174863387978104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.82</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.95174863387978104</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.95174863387978104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C8" s="1">
+        <v>0.80666666666666598</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.80666666666666598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.95174863387978104</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.95174863387978104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C10">
+        <v>0.76468104222821198</v>
+      </c>
+      <c r="D10">
+        <v>0.76468104222821198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.95174863387978104</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.95174863387978104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C11" s="1">
+        <v>0.76942497753818495</v>
+      </c>
+      <c r="D11">
+        <v>0.76942497753818495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.95174863387978104</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.95174863387978104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C12" s="1">
+        <v>0.76563342318059302</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.76563342318059302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.95174863387978104</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.95174863387978104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C14" s="1">
+        <v>0.96303604761096695</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.96303604761096695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.955081967213114</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.955081967213114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C15">
+        <v>0.96464408943621505</v>
+      </c>
+      <c r="D15">
+        <v>0.96464408943621505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.950081967213114</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.950081967213114</v>
+      <c r="C16">
+        <v>0.96243323394180302</v>
+      </c>
+      <c r="D16">
+        <v>0.96243323394180302</v>
       </c>
     </row>
   </sheetData>
